--- a/test_data.xlsx
+++ b/test_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaron\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaron\Documents\GitHub\MFA_global_metal_flows\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{086C55CA-A348-40C7-BE43-FDE37B494F8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CF13659-EFC3-48F8-A4A6-79F58F999E8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6210" yWindow="3255" windowWidth="21600" windowHeight="11100" xr2:uid="{1E23AF46-71D9-471C-B087-D5CD3B6D045B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1289" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1489" uniqueCount="38">
   <si>
     <t>source_stage</t>
   </si>
@@ -141,6 +141,15 @@
   </si>
   <si>
     <t>balance_refining</t>
+  </si>
+  <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>Other</t>
   </si>
 </sst>
 </file>
@@ -492,10 +501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8BE93B7-F3D4-404B-97BE-3BB02C18BAE4}">
-  <dimension ref="A1:E322"/>
+  <dimension ref="A1:E372"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A387" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -531,7 +540,7 @@
         <v>6</v>
       </c>
       <c r="E2">
-        <v>401000</v>
+        <v>4010</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -548,7 +557,7 @@
         <v>8</v>
       </c>
       <c r="E3">
-        <v>140.149001207933</v>
+        <v>1.4014900120793301</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -565,7 +574,7 @@
         <v>9</v>
       </c>
       <c r="E4">
-        <v>289238.29373385297</v>
+        <v>2892.3829373385302</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -582,7 +591,7 @@
         <v>10</v>
       </c>
       <c r="E5">
-        <v>12031.4615475997</v>
+        <v>120.314615475997</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -599,7 +608,7 @@
         <v>10</v>
       </c>
       <c r="E6">
-        <v>1.95134939497454</v>
+        <v>1.95134939497454E-2</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -616,7 +625,7 @@
         <v>10</v>
       </c>
       <c r="E7">
-        <v>16.898316137232399</v>
+        <v>0.168983161372324</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -633,7 +642,7 @@
         <v>10</v>
       </c>
       <c r="E8">
-        <v>3.31736864281977</v>
+        <v>3.31736864281977E-2</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -650,7 +659,7 @@
         <v>11</v>
       </c>
       <c r="E9">
-        <v>45305.441603671999</v>
+        <v>453.05441603672</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -667,7 +676,7 @@
         <v>11</v>
       </c>
       <c r="E10">
-        <v>33.989751087159803</v>
+        <v>0.33989751087159797</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -684,7 +693,7 @@
         <v>11</v>
       </c>
       <c r="E11">
-        <v>12.073799370397801</v>
+        <v>0.120737993703978</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -701,7 +710,7 @@
         <v>12</v>
       </c>
       <c r="E12">
-        <v>120770.669615441</v>
+        <v>1207.7066961544101</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -718,7 +727,7 @@
         <v>12</v>
       </c>
       <c r="E13">
-        <v>51.467877345433301</v>
+        <v>0.51467877345433299</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -735,7 +744,7 @@
         <v>12</v>
       </c>
       <c r="E14">
-        <v>6.5012802960984697</v>
+        <v>6.5012802960984703E-2</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -752,7 +761,7 @@
         <v>13</v>
       </c>
       <c r="E15">
-        <v>30554.121673105299</v>
+        <v>305.541216731053</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -769,7 +778,7 @@
         <v>14</v>
       </c>
       <c r="E16">
-        <v>22776.584072101301</v>
+        <v>227.76584072101301</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -786,7 +795,7 @@
         <v>14</v>
       </c>
       <c r="E17">
-        <v>44.0061677270483</v>
+        <v>0.44006167727048301</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -803,7 +812,7 @@
         <v>14</v>
       </c>
       <c r="E18">
-        <v>213.008556975358</v>
+        <v>2.1300855697535801</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -820,7 +829,7 @@
         <v>14</v>
       </c>
       <c r="E19">
-        <v>39.097178980760297</v>
+        <v>0.390971789807603</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -837,7 +846,7 @@
         <v>15</v>
       </c>
       <c r="E20">
-        <v>2760.9671070617301</v>
+        <v>27.609671070617299</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -854,7 +863,7 @@
         <v>16</v>
       </c>
       <c r="E21">
-        <v>115400</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -871,7 +880,7 @@
         <v>8</v>
       </c>
       <c r="E22">
-        <v>15091.3076865361</v>
+        <v>150.91307686536101</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -888,7 +897,7 @@
         <v>9</v>
       </c>
       <c r="E23">
-        <v>72601.602764104493</v>
+        <v>726.01602764104496</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -905,7 +914,7 @@
         <v>10</v>
       </c>
       <c r="E24">
-        <v>60655.481401717399</v>
+        <v>606.55481401717395</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -922,7 +931,7 @@
         <v>10</v>
       </c>
       <c r="E25">
-        <v>10.203719112105301</v>
+        <v>0.102037191121053</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -939,7 +948,7 @@
         <v>10</v>
       </c>
       <c r="E26">
-        <v>0.63312879041826697</v>
+        <v>6.3312879041826703E-3</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -956,7 +965,7 @@
         <v>12</v>
       </c>
       <c r="E27">
-        <v>3099.1567272023399</v>
+        <v>30.991567272023399</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -973,7 +982,7 @@
         <v>12</v>
       </c>
       <c r="E28">
-        <v>9.81749560730211</v>
+        <v>9.8174956073021097E-2</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -990,7 +999,7 @@
         <v>17</v>
       </c>
       <c r="E29">
-        <v>31634.548717221001</v>
+        <v>316.34548717221003</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -1007,7 +1016,7 @@
         <v>14</v>
       </c>
       <c r="E30">
-        <v>20583.580490127599</v>
+        <v>205.83580490127599</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -1024,7 +1033,7 @@
         <v>18</v>
       </c>
       <c r="E31">
-        <v>12922.130223746401</v>
+        <v>129.22130223746399</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -1041,7 +1050,7 @@
         <v>18</v>
       </c>
       <c r="E32">
-        <v>0.73427182631692001</v>
+        <v>7.3427182631691998E-3</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -1058,7 +1067,7 @@
         <v>18</v>
       </c>
       <c r="E33">
-        <v>10.2793519696086</v>
+        <v>0.10279351969608599</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -1075,7 +1084,7 @@
         <v>15</v>
       </c>
       <c r="E34">
-        <v>31248.524022038499</v>
+        <v>312.48524022038498</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -1092,7 +1101,7 @@
         <v>8</v>
       </c>
       <c r="E35">
-        <v>70927</v>
+        <v>709.27</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -1109,7 +1118,7 @@
         <v>8</v>
       </c>
       <c r="E36">
-        <v>4245.0227012579599</v>
+        <v>42.450227012579603</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
@@ -1126,7 +1135,7 @@
         <v>19</v>
       </c>
       <c r="E37">
-        <v>290000</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -1143,7 +1152,7 @@
         <v>9</v>
       </c>
       <c r="E38">
-        <v>119916.84798746499</v>
+        <v>1199.1684798746501</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
@@ -1160,7 +1169,7 @@
         <v>9</v>
       </c>
       <c r="E39">
-        <v>1148.88232478288</v>
+        <v>11.488823247828799</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
@@ -1177,7 +1186,7 @@
         <v>10</v>
       </c>
       <c r="E40">
-        <v>6813.5992549393904</v>
+        <v>68.135992549393904</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
@@ -1194,7 +1203,7 @@
         <v>10</v>
       </c>
       <c r="E41">
-        <v>11281.4377350944</v>
+        <v>112.814377350944</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -1211,7 +1220,7 @@
         <v>11</v>
       </c>
       <c r="E42">
-        <v>8788.6924692570101</v>
+        <v>87.886924692570105</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
@@ -1228,7 +1237,7 @@
         <v>11</v>
       </c>
       <c r="E43">
-        <v>27.710716966320302</v>
+        <v>0.27710716966320298</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
@@ -1245,7 +1254,7 @@
         <v>12</v>
       </c>
       <c r="E44">
-        <v>80638.949128154898</v>
+        <v>806.389491281549</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -1262,7 +1271,7 @@
         <v>12</v>
       </c>
       <c r="E45">
-        <v>28.254065859423498</v>
+        <v>0.28254065859423499</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
@@ -1279,7 +1288,7 @@
         <v>12</v>
       </c>
       <c r="E46">
-        <v>4479.7132764009602</v>
+        <v>44.797132764009604</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
@@ -1296,7 +1305,7 @@
         <v>13</v>
       </c>
       <c r="E47">
-        <v>3299.93220490249</v>
+        <v>32.999322049024897</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
@@ -1313,7 +1322,7 @@
         <v>17</v>
       </c>
       <c r="E48">
-        <v>375.94076338882599</v>
+        <v>3.75940763388826</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
@@ -1330,7 +1339,7 @@
         <v>14</v>
       </c>
       <c r="E49">
-        <v>22357.3685125423</v>
+        <v>223.573685125423</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -1347,7 +1356,7 @@
         <v>14</v>
       </c>
       <c r="E50">
-        <v>1.74446010373478</v>
+        <v>1.7444601037347799E-2</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
@@ -1364,7 +1373,7 @@
         <v>14</v>
       </c>
       <c r="E51">
-        <v>47.675323454895</v>
+        <v>0.47675323454895002</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
@@ -1381,7 +1390,7 @@
         <v>14</v>
       </c>
       <c r="E52">
-        <v>1.3478422154498499E-2</v>
+        <v>1.3478422154498501E-4</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
@@ -1398,7 +1407,7 @@
         <v>14</v>
       </c>
       <c r="E53">
-        <v>12.5109624551929</v>
+        <v>0.12510962455192901</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
@@ -1415,7 +1424,7 @@
         <v>18</v>
       </c>
       <c r="E54">
-        <v>2060.3763051128899</v>
+        <v>20.603763051128901</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
@@ -1432,7 +1441,7 @@
         <v>18</v>
       </c>
       <c r="E55">
-        <v>1.58937540204153</v>
+        <v>1.5893754020415301E-2</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
@@ -1449,7 +1458,7 @@
         <v>18</v>
       </c>
       <c r="E56">
-        <v>737.89353382291802</v>
+        <v>7.37893533822918</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
@@ -1466,7 +1475,7 @@
         <v>15</v>
       </c>
       <c r="E57">
-        <v>16440.8454202131</v>
+        <v>164.408454202131</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
@@ -1483,7 +1492,7 @@
         <v>8</v>
       </c>
       <c r="E58">
-        <v>7973.2753078249498</v>
+        <v>79.732753078249502</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
@@ -1500,7 +1509,7 @@
         <v>20</v>
       </c>
       <c r="E59">
-        <v>1011200</v>
+        <v>10112</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
@@ -1517,7 +1526,7 @@
         <v>9</v>
       </c>
       <c r="E60">
-        <v>634644.95758453698</v>
+        <v>6346.4495758453704</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
@@ -1534,7 +1543,7 @@
         <v>10</v>
       </c>
       <c r="E61">
-        <v>53564.450731839097</v>
+        <v>535.64450731839099</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
@@ -1550,8 +1559,8 @@
       <c r="D62" t="s">
         <v>10</v>
       </c>
-      <c r="E62">
-        <v>8.0679285478137408E-3</v>
+      <c r="E62" s="1">
+        <v>8.0679285478137404E-5</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
@@ -1568,7 +1577,7 @@
         <v>11</v>
       </c>
       <c r="E63">
-        <v>161439.16269817701</v>
+        <v>1614.3916269817701</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
@@ -1585,7 +1594,7 @@
         <v>11</v>
       </c>
       <c r="E64">
-        <v>2.5747005757210499</v>
+        <v>2.5747005757210499E-2</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
@@ -1602,7 +1611,7 @@
         <v>11</v>
       </c>
       <c r="E65">
-        <v>2.86740530973923</v>
+        <v>2.8674053097392301E-2</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
@@ -1619,7 +1628,7 @@
         <v>12</v>
       </c>
       <c r="E66">
-        <v>606157.91994701105</v>
+        <v>6061.5791994701103</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
@@ -1636,7 +1645,7 @@
         <v>12</v>
       </c>
       <c r="E67">
-        <v>0.88049024277652199</v>
+        <v>8.8049024277652207E-3</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
@@ -1653,7 +1662,7 @@
         <v>13</v>
       </c>
       <c r="E68">
-        <v>6020.2950481192802</v>
+        <v>60.202950481192801</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
@@ -1669,8 +1678,8 @@
       <c r="D69" t="s">
         <v>17</v>
       </c>
-      <c r="E69">
-        <v>4.5921231338138298E-3</v>
+      <c r="E69" s="1">
+        <v>4.5921231338138298E-5</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
@@ -1687,7 +1696,7 @@
         <v>14</v>
       </c>
       <c r="E70">
-        <v>220085.539482508</v>
+        <v>2200.8553948250801</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
@@ -1704,7 +1713,7 @@
         <v>14</v>
       </c>
       <c r="E71">
-        <v>577.21539484239895</v>
+        <v>5.7721539484239903</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
@@ -1721,7 +1730,7 @@
         <v>18</v>
       </c>
       <c r="E72">
-        <v>45009.727351114503</v>
+        <v>450.09727351114498</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
@@ -1738,7 +1747,7 @@
         <v>18</v>
       </c>
       <c r="E73">
-        <v>0.19961837665648599</v>
+        <v>1.9961837665648601E-3</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
@@ -1755,7 +1764,7 @@
         <v>18</v>
       </c>
       <c r="E74">
-        <v>5.4048742843634097</v>
+        <v>5.4048742843634097E-2</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
@@ -1772,7 +1781,7 @@
         <v>18</v>
       </c>
       <c r="E75">
-        <v>4.3120849226251599</v>
+        <v>4.3120849226251597E-2</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
@@ -1789,7 +1798,7 @@
         <v>15</v>
       </c>
       <c r="E76">
-        <v>3040711.2046202598</v>
+        <v>30407.112046202601</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
@@ -1806,7 +1815,7 @@
         <v>9</v>
       </c>
       <c r="E77">
-        <v>1683700</v>
+        <v>16837</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
@@ -1823,7 +1832,7 @@
         <v>9</v>
       </c>
       <c r="E78">
-        <v>55576.319281794596</v>
+        <v>555.76319281794599</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
@@ -1840,7 +1849,7 @@
         <v>21</v>
       </c>
       <c r="E79">
-        <v>1255919</v>
+        <v>12559.19</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
@@ -1857,7 +1866,7 @@
         <v>10</v>
       </c>
       <c r="E80">
-        <v>0.32898936827210401</v>
+        <v>3.2898936827210402E-3</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
@@ -1874,7 +1883,7 @@
         <v>10</v>
       </c>
       <c r="E81">
-        <v>1.7687835582704201</v>
+        <v>1.76878355827042E-2</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
@@ -1890,8 +1899,8 @@
       <c r="D82" t="s">
         <v>11</v>
       </c>
-      <c r="E82">
-        <v>8.7471323912819404E-3</v>
+      <c r="E82" s="1">
+        <v>8.7471323912819394E-5</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
@@ -1908,7 +1917,7 @@
         <v>17</v>
       </c>
       <c r="E83">
-        <v>2620.0334246786701</v>
+        <v>26.200334246786699</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
@@ -1925,7 +1934,7 @@
         <v>14</v>
       </c>
       <c r="E84">
-        <v>5.0368904019798499</v>
+        <v>5.0368904019798502E-2</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
@@ -1942,7 +1951,7 @@
         <v>15</v>
       </c>
       <c r="E85">
-        <v>56377.503883065699</v>
+        <v>563.77503883065697</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
@@ -1959,7 +1968,7 @@
         <v>11</v>
       </c>
       <c r="E86">
-        <v>28000</v>
+        <v>280</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
@@ -1976,7 +1985,7 @@
         <v>8</v>
       </c>
       <c r="E87">
-        <v>11574.3487727213</v>
+        <v>115.74348772721299</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
@@ -1993,7 +2002,7 @@
         <v>9</v>
       </c>
       <c r="E88">
-        <v>73211.478905374694</v>
+        <v>732.11478905374702</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
@@ -2010,7 +2019,7 @@
         <v>9</v>
       </c>
       <c r="E89">
-        <v>5.2418413028304398</v>
+        <v>5.2418413028304398E-2</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
@@ -2027,7 +2036,7 @@
         <v>9</v>
       </c>
       <c r="E90">
-        <v>1953.7870296324299</v>
+        <v>19.5378702963243</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
@@ -2044,7 +2053,7 @@
         <v>9</v>
       </c>
       <c r="E91">
-        <v>51.651707987859503</v>
+        <v>0.51651707987859596</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
@@ -2060,8 +2069,8 @@
       <c r="D92" t="s">
         <v>9</v>
       </c>
-      <c r="E92">
-        <v>8.07057937310306E-4</v>
+      <c r="E92" s="1">
+        <v>8.0705793731030592E-6</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
@@ -2078,7 +2087,7 @@
         <v>10</v>
       </c>
       <c r="E93">
-        <v>2701.6980311852899</v>
+        <v>27.016980311852901</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
@@ -2095,7 +2104,7 @@
         <v>10</v>
       </c>
       <c r="E94">
-        <v>6.5242563652165098</v>
+        <v>6.5242563652165103E-2</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
@@ -2112,7 +2121,7 @@
         <v>10</v>
       </c>
       <c r="E95">
-        <v>0.86250281760352399</v>
+        <v>8.6250281760352401E-3</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
@@ -2129,7 +2138,7 @@
         <v>11</v>
       </c>
       <c r="E96">
-        <v>7264.3690887443099</v>
+        <v>72.6436908874431</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
@@ -2146,7 +2155,7 @@
         <v>11</v>
       </c>
       <c r="E97">
-        <v>69.117894455541702</v>
+        <v>0.69117894455541695</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
@@ -2163,7 +2172,7 @@
         <v>11</v>
       </c>
       <c r="E98">
-        <v>266.71812123818398</v>
+        <v>2.6671812123818399</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
@@ -2180,7 +2189,7 @@
         <v>11</v>
       </c>
       <c r="E99">
-        <v>17.7552746208267</v>
+        <v>0.177552746208267</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
@@ -2197,7 +2206,7 @@
         <v>11</v>
       </c>
       <c r="E100">
-        <v>9.7616885749430704</v>
+        <v>9.7616885749430699E-2</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
@@ -2214,7 +2223,7 @@
         <v>22</v>
       </c>
       <c r="E101">
-        <v>163429</v>
+        <v>1634.29</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
@@ -2231,7 +2240,7 @@
         <v>12</v>
       </c>
       <c r="E102">
-        <v>26149.221448726799</v>
+        <v>261.49221448726797</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
@@ -2248,7 +2257,7 @@
         <v>12</v>
       </c>
       <c r="E103">
-        <v>38.0303455335237</v>
+        <v>0.38030345533523702</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
@@ -2265,7 +2274,7 @@
         <v>12</v>
       </c>
       <c r="E104">
-        <v>12.0574455834159</v>
+        <v>0.120574455834159</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
@@ -2282,7 +2291,7 @@
         <v>12</v>
       </c>
       <c r="E105">
-        <v>3.55105492416534</v>
+        <v>3.5510549241653401E-2</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
@@ -2299,7 +2308,7 @@
         <v>12</v>
       </c>
       <c r="E106">
-        <v>38.1416388230788</v>
+        <v>0.38141638823078799</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
@@ -2316,7 +2325,7 @@
         <v>12</v>
       </c>
       <c r="E107">
-        <v>5.5728964687151201</v>
+        <v>5.5728964687151203E-2</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
@@ -2333,7 +2342,7 @@
         <v>13</v>
       </c>
       <c r="E108">
-        <v>24040.270589948199</v>
+        <v>240.40270589948199</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
@@ -2350,7 +2359,7 @@
         <v>13</v>
       </c>
       <c r="E109">
-        <v>10663.4660600078</v>
+        <v>106.63466060007801</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
@@ -2367,7 +2376,7 @@
         <v>13</v>
       </c>
       <c r="E110">
-        <v>384.84961269610602</v>
+        <v>3.8484961269610598</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
@@ -2384,7 +2393,7 @@
         <v>14</v>
       </c>
       <c r="E111">
-        <v>21104.6331763544</v>
+        <v>211.046331763544</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
@@ -2401,7 +2410,7 @@
         <v>14</v>
       </c>
       <c r="E112">
-        <v>410.04378244250302</v>
+        <v>4.1004378244250299</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
@@ -2418,7 +2427,7 @@
         <v>14</v>
       </c>
       <c r="E113">
-        <v>1.66084452919087</v>
+        <v>1.6608445291908702E-2</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
@@ -2435,7 +2444,7 @@
         <v>18</v>
       </c>
       <c r="E114">
-        <v>3179.9437690014101</v>
+        <v>31.799437690014098</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
@@ -2452,7 +2461,7 @@
         <v>15</v>
       </c>
       <c r="E115">
-        <v>4183.2414128813698</v>
+        <v>41.832414128813703</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
@@ -2469,7 +2478,7 @@
         <v>9</v>
       </c>
       <c r="E116">
-        <v>8497.9619646252395</v>
+        <v>84.979619646252402</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
@@ -2486,7 +2495,7 @@
         <v>10</v>
       </c>
       <c r="E117">
-        <v>25.4519950388948</v>
+        <v>0.25451995038894798</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
@@ -2503,7 +2512,7 @@
         <v>23</v>
       </c>
       <c r="E118">
-        <v>201100</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
@@ -2520,7 +2529,7 @@
         <v>15</v>
       </c>
       <c r="E119">
-        <v>102576.58604033499</v>
+        <v>1025.76586040335</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
@@ -2537,7 +2546,7 @@
         <v>9</v>
       </c>
       <c r="E120">
-        <v>129123.18407341</v>
+        <v>1291.2318407340999</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
@@ -2554,7 +2563,7 @@
         <v>10</v>
       </c>
       <c r="E121">
-        <v>1.4116967274057299</v>
+        <v>1.4116967274057301E-2</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
@@ -2571,7 +2580,7 @@
         <v>10</v>
       </c>
       <c r="E122">
-        <v>0.77505426123550403</v>
+        <v>7.75054261235504E-3</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
@@ -2588,7 +2597,7 @@
         <v>24</v>
       </c>
       <c r="E123">
-        <v>371359</v>
+        <v>3713.59</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
@@ -2605,7 +2614,7 @@
         <v>15</v>
       </c>
       <c r="E124">
-        <v>61615.629175600399</v>
+        <v>616.15629175600395</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
@@ -2622,7 +2631,7 @@
         <v>9</v>
       </c>
       <c r="E125">
-        <v>374196.48946918303</v>
+        <v>3741.9648946918301</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
@@ -2639,7 +2648,7 @@
         <v>10</v>
       </c>
       <c r="E126">
-        <v>9859.0955964595596</v>
+        <v>98.590955964595594</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
@@ -2656,7 +2665,7 @@
         <v>10</v>
       </c>
       <c r="E127">
-        <v>19.178607851260299</v>
+        <v>0.19178607851260299</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
@@ -2673,7 +2682,7 @@
         <v>10</v>
       </c>
       <c r="E128">
-        <v>10.7426896938992</v>
+        <v>0.107426896938992</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
@@ -2690,7 +2699,7 @@
         <v>11</v>
       </c>
       <c r="E129">
-        <v>102.149339249775</v>
+        <v>1.0214933924977501</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
@@ -2707,7 +2716,7 @@
         <v>11</v>
       </c>
       <c r="E130">
-        <v>13.697389251611</v>
+        <v>0.13697389251611</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
@@ -2724,7 +2733,7 @@
         <v>12</v>
       </c>
       <c r="E131">
-        <v>1.4624177241983201</v>
+        <v>1.4624177241983199E-2</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
@@ -2741,7 +2750,7 @@
         <v>12</v>
       </c>
       <c r="E132">
-        <v>7.4660273288019896</v>
+        <v>7.4660273288019899E-2</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
@@ -2758,7 +2767,7 @@
         <v>12</v>
       </c>
       <c r="E133">
-        <v>2.7083976252153001</v>
+        <v>2.7083976252152999E-2</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
@@ -2775,7 +2784,7 @@
         <v>25</v>
       </c>
       <c r="E134">
-        <v>277700</v>
+        <v>2777</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
@@ -2792,7 +2801,7 @@
         <v>14</v>
       </c>
       <c r="E135">
-        <v>8479.2199613278499</v>
+        <v>84.792199613278498</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
@@ -2809,7 +2818,7 @@
         <v>14</v>
       </c>
       <c r="E136">
-        <v>247.55253055881201</v>
+        <v>2.4755253055881199</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
@@ -2826,7 +2835,7 @@
         <v>14</v>
       </c>
       <c r="E137">
-        <v>5.9456516811130697</v>
+        <v>5.9456516811130698E-2</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
@@ -2842,8 +2851,8 @@
       <c r="D138" t="s">
         <v>14</v>
       </c>
-      <c r="E138">
-        <v>1.5393870781034999E-4</v>
+      <c r="E138" s="1">
+        <v>1.5393870781035E-6</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
@@ -2860,7 +2869,7 @@
         <v>18</v>
       </c>
       <c r="E139">
-        <v>2275.4192052480498</v>
+        <v>22.754192052480501</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
@@ -2877,7 +2886,7 @@
         <v>18</v>
       </c>
       <c r="E140">
-        <v>5.8401198061975297</v>
+        <v>5.8401198061975301E-2</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
@@ -2894,7 +2903,7 @@
         <v>18</v>
       </c>
       <c r="E141">
-        <v>0.83497076619292399</v>
+        <v>8.3497076619292402E-3</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
@@ -2911,7 +2920,7 @@
         <v>18</v>
       </c>
       <c r="E142">
-        <v>5.7940620790193202</v>
+        <v>5.7940620790193201E-2</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
@@ -2927,8 +2936,8 @@
       <c r="D143" t="s">
         <v>18</v>
       </c>
-      <c r="E143">
-        <v>8.7230543898132501E-4</v>
+      <c r="E143" s="1">
+        <v>8.7230543898132499E-6</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
@@ -2945,7 +2954,7 @@
         <v>15</v>
       </c>
       <c r="E144">
-        <v>40766.402537920701</v>
+        <v>407.66402537920698</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
@@ -2962,7 +2971,7 @@
         <v>9</v>
       </c>
       <c r="E145">
-        <v>301758</v>
+        <v>3017.58</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
@@ -2979,7 +2988,7 @@
         <v>8</v>
       </c>
       <c r="E146">
-        <v>31484.380975947901</v>
+        <v>314.84380975947897</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
@@ -2996,7 +3005,7 @@
         <v>9</v>
       </c>
       <c r="E147">
-        <v>1560620.72320026</v>
+        <v>15606.2072320026</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
@@ -3013,7 +3022,7 @@
         <v>10</v>
       </c>
       <c r="E148">
-        <v>80183.567033891595</v>
+        <v>801.83567033891597</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
@@ -3030,7 +3039,7 @@
         <v>11</v>
       </c>
       <c r="E149">
-        <v>46862.274631314598</v>
+        <v>468.62274631314602</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
@@ -3047,7 +3056,7 @@
         <v>12</v>
       </c>
       <c r="E150">
-        <v>174599.463643519</v>
+        <v>1745.9946364351899</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.2">
@@ -3064,7 +3073,7 @@
         <v>12</v>
       </c>
       <c r="E151">
-        <v>2.99302972132902</v>
+        <v>2.99302972132902E-2</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
@@ -3081,7 +3090,7 @@
         <v>12</v>
       </c>
       <c r="E152">
-        <v>1.67257543250739</v>
+        <v>1.6725754325073901E-2</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
@@ -3098,7 +3107,7 @@
         <v>27</v>
       </c>
       <c r="E153">
-        <v>294315</v>
+        <v>2943.15</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.2">
@@ -3115,7 +3124,7 @@
         <v>13</v>
       </c>
       <c r="E154">
-        <v>36756.569906742101</v>
+        <v>367.56569906742101</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
@@ -3132,7 +3141,7 @@
         <v>14</v>
       </c>
       <c r="E155">
-        <v>141121.72355271201</v>
+        <v>1411.21723552712</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
@@ -3149,7 +3158,7 @@
         <v>18</v>
       </c>
       <c r="E156">
-        <v>7207.4093837740002</v>
+        <v>72.074093837739994</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.2">
@@ -3166,7 +3175,7 @@
         <v>15</v>
       </c>
       <c r="E157">
-        <v>82284.222066682807</v>
+        <v>822.84222066682798</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.2">
@@ -3183,7 +3192,7 @@
         <v>13</v>
       </c>
       <c r="E158">
-        <v>71892</v>
+        <v>718.92</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.2">
@@ -3200,7 +3209,7 @@
         <v>17</v>
       </c>
       <c r="E159">
-        <v>398900</v>
+        <v>3989</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.2">
@@ -3217,7 +3226,7 @@
         <v>9</v>
       </c>
       <c r="E160">
-        <v>9971.9795269288206</v>
+        <v>99.719795269288198</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.2">
@@ -3234,7 +3243,7 @@
         <v>9</v>
       </c>
       <c r="E161">
-        <v>7.0459033350353598E-2</v>
+        <v>7.0459033350353604E-4</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.2">
@@ -3251,7 +3260,7 @@
         <v>10</v>
       </c>
       <c r="E162">
-        <v>41.038159384579899</v>
+        <v>0.41038159384579898</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.2">
@@ -3268,7 +3277,7 @@
         <v>10</v>
       </c>
       <c r="E163">
-        <v>1.6219669477251399</v>
+        <v>1.6219669477251401E-2</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
@@ -3285,7 +3294,7 @@
         <v>10</v>
       </c>
       <c r="E164">
-        <v>92.8056011618703</v>
+        <v>0.92805601161870299</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
@@ -3302,7 +3311,7 @@
         <v>10</v>
       </c>
       <c r="E165">
-        <v>0.62097894726111602</v>
+        <v>6.2097894726111597E-3</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.2">
@@ -3319,7 +3328,7 @@
         <v>12</v>
       </c>
       <c r="E166">
-        <v>3.20666889558942E-2</v>
+        <v>3.2066688955894202E-4</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
@@ -3336,7 +3345,7 @@
         <v>28</v>
       </c>
       <c r="E167">
-        <v>801000</v>
+        <v>8010</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.2">
@@ -3353,7 +3362,7 @@
         <v>15</v>
       </c>
       <c r="E168">
-        <v>1291.8312409074299</v>
+        <v>12.9183124090743</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.2">
@@ -3370,7 +3379,7 @@
         <v>18</v>
       </c>
       <c r="E169">
-        <v>170556</v>
+        <v>1705.56</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.2">
@@ -3387,7 +3396,7 @@
         <v>8</v>
       </c>
       <c r="E170">
-        <v>5229.7810634901498</v>
+        <v>52.297810634901502</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.2">
@@ -3404,7 +3413,7 @@
         <v>8</v>
       </c>
       <c r="E171">
-        <v>258.561439373094</v>
+        <v>2.5856143937309399</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.2">
@@ -3421,7 +3430,7 @@
         <v>9</v>
       </c>
       <c r="E172">
-        <v>2838.76267188564</v>
+        <v>28.387626718856399</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.2">
@@ -3438,7 +3447,7 @@
         <v>9</v>
       </c>
       <c r="E173">
-        <v>0.67140172813570798</v>
+        <v>6.7140172813570801E-3</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.2">
@@ -3455,7 +3464,7 @@
         <v>9</v>
       </c>
       <c r="E174">
-        <v>0.73958901838640101</v>
+        <v>7.3958901838640104E-3</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.2">
@@ -3472,7 +3481,7 @@
         <v>9</v>
       </c>
       <c r="E175">
-        <v>11.798520379611601</v>
+        <v>0.117985203796116</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.2">
@@ -3489,7 +3498,7 @@
         <v>9</v>
       </c>
       <c r="E176">
-        <v>38.885079998044603</v>
+        <v>0.38885079998044603</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.2">
@@ -3506,7 +3515,7 @@
         <v>10</v>
       </c>
       <c r="E177">
-        <v>1.2186606071472601</v>
+        <v>1.21866060714726E-2</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.2">
@@ -3523,7 +3532,7 @@
         <v>10</v>
       </c>
       <c r="E178">
-        <v>92.623046900320901</v>
+        <v>0.92623046900320904</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.2">
@@ -3540,7 +3549,7 @@
         <v>10</v>
       </c>
       <c r="E179">
-        <v>17.919272701121699</v>
+        <v>0.179192727011217</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.2">
@@ -3557,7 +3566,7 @@
         <v>10</v>
       </c>
       <c r="E180">
-        <v>169.81900422793899</v>
+        <v>1.6981900422793901</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
@@ -3574,7 +3583,7 @@
         <v>10</v>
       </c>
       <c r="E181">
-        <v>1.5158629250273501</v>
+        <v>1.51586292502735E-2</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.2">
@@ -3591,7 +3600,7 @@
         <v>10</v>
       </c>
       <c r="E182">
-        <v>228.11967119836501</v>
+        <v>2.2811967119836498</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.2">
@@ -3608,7 +3617,7 @@
         <v>11</v>
       </c>
       <c r="E183">
-        <v>2.1333495504459801E-2</v>
+        <v>2.1333495504459801E-4</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.2">
@@ -3625,7 +3634,7 @@
         <v>11</v>
       </c>
       <c r="E184">
-        <v>4.3920620610337702</v>
+        <v>4.3920620610337698E-2</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.2">
@@ -3642,7 +3651,7 @@
         <v>11</v>
       </c>
       <c r="E185">
-        <v>752.58883207599899</v>
+        <v>7.5258883207599903</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.2">
@@ -3659,7 +3668,7 @@
         <v>11</v>
       </c>
       <c r="E186">
-        <v>20.645318230122399</v>
+        <v>0.206453182301224</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.2">
@@ -3675,8 +3684,8 @@
       <c r="D187" t="s">
         <v>11</v>
       </c>
-      <c r="E187">
-        <v>1.14696212389569E-4</v>
+      <c r="E187" s="1">
+        <v>1.14696212389569E-6</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.2">
@@ -3693,7 +3702,7 @@
         <v>11</v>
       </c>
       <c r="E188">
-        <v>0.33330719320408803</v>
+        <v>3.3330719320408802E-3</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.2">
@@ -3710,7 +3719,7 @@
         <v>12</v>
       </c>
       <c r="E189">
-        <v>39640.102537926199</v>
+        <v>396.40102537926202</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.2">
@@ -3727,7 +3736,7 @@
         <v>12</v>
       </c>
       <c r="E190">
-        <v>219.824822397563</v>
+        <v>2.19824822397563</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.2">
@@ -3744,7 +3753,7 @@
         <v>12</v>
       </c>
       <c r="E191">
-        <v>136.60802889412199</v>
+        <v>1.36608028894122</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.2">
@@ -3761,7 +3770,7 @@
         <v>12</v>
       </c>
       <c r="E192">
-        <v>12.1272339742602</v>
+        <v>0.121272339742602</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.2">
@@ -3778,7 +3787,7 @@
         <v>12</v>
       </c>
       <c r="E193">
-        <v>549.05652790132899</v>
+        <v>5.4905652790132899</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.2">
@@ -3795,7 +3804,7 @@
         <v>12</v>
       </c>
       <c r="E194">
-        <v>241.47313512335401</v>
+        <v>2.4147313512335402</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.2">
@@ -3812,7 +3821,7 @@
         <v>13</v>
       </c>
       <c r="E195">
-        <v>3838.6352442549701</v>
+        <v>38.3863524425498</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.2">
@@ -3829,7 +3838,7 @@
         <v>13</v>
       </c>
       <c r="E196">
-        <v>4.11600504105993</v>
+        <v>4.1160050410599301E-2</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.2">
@@ -3846,7 +3855,7 @@
         <v>17</v>
       </c>
       <c r="E197">
-        <v>1.9680527716345E-2</v>
+        <v>1.9680527716345E-4</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.2">
@@ -3863,7 +3872,7 @@
         <v>17</v>
       </c>
       <c r="E198">
-        <v>558.62828046796994</v>
+        <v>5.5862828046797004</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.2">
@@ -3880,7 +3889,7 @@
         <v>14</v>
       </c>
       <c r="E199">
-        <v>11193.8285823066</v>
+        <v>111.938285823066</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.2">
@@ -3897,7 +3906,7 @@
         <v>14</v>
       </c>
       <c r="E200">
-        <v>170.74924413406299</v>
+        <v>1.7074924413406301</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.2">
@@ -3914,7 +3923,7 @@
         <v>14</v>
       </c>
       <c r="E201">
-        <v>7.3163651701267103</v>
+        <v>7.3163651701267193E-2</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.2">
@@ -3931,7 +3940,7 @@
         <v>14</v>
       </c>
       <c r="E202">
-        <v>17.985898083440802</v>
+        <v>0.17985898083440799</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.2">
@@ -3948,7 +3957,7 @@
         <v>14</v>
       </c>
       <c r="E203">
-        <v>5.1720818967360103</v>
+        <v>5.1720818967360097E-2</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.2">
@@ -3965,7 +3974,7 @@
         <v>14</v>
       </c>
       <c r="E204">
-        <v>98.329122233797193</v>
+        <v>0.98329122233797195</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.2">
@@ -3982,7 +3991,7 @@
         <v>18</v>
       </c>
       <c r="E205">
-        <v>10865.3178446272</v>
+        <v>108.65317844627199</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.2">
@@ -3999,7 +4008,7 @@
         <v>18</v>
       </c>
       <c r="E206">
-        <v>1.8297129965896599</v>
+        <v>1.8297129965896601E-2</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.2">
@@ -4016,7 +4025,7 @@
         <v>18</v>
       </c>
       <c r="E207">
-        <v>3.2127358239857799</v>
+        <v>3.2127358239857802E-2</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.2">
@@ -4033,7 +4042,7 @@
         <v>18</v>
       </c>
       <c r="E208">
-        <v>116.42646737196699</v>
+        <v>1.16426467371967</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.2">
@@ -4050,7 +4059,7 @@
         <v>18</v>
       </c>
       <c r="E209">
-        <v>0.626071059665677</v>
+        <v>6.2607105966567701E-3</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.2">
@@ -4063,11 +4072,11 @@
       <c r="C210" t="s">
         <v>7</v>
       </c>
-      <c r="D210" t="s">
+      <c r="D210" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E210" s="1">
-        <v>3.4892217559253E-5</v>
+        <v>3.4892217559253002E-7</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.2">
@@ -4084,7 +4093,7 @@
         <v>29</v>
       </c>
       <c r="E211">
-        <v>464000</v>
+        <v>4640</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.2">
@@ -4101,7 +4110,7 @@
         <v>15</v>
       </c>
       <c r="E212">
-        <v>718650.21809070895</v>
+        <v>7186.5021809070904</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.2">
@@ -4118,7 +4127,7 @@
         <v>9</v>
       </c>
       <c r="E213">
-        <v>2717.5442436887301</v>
+        <v>27.175442436887302</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.2">
@@ -4135,7 +4144,7 @@
         <v>10</v>
       </c>
       <c r="E214">
-        <v>7.81752021551097</v>
+        <v>7.8175202155109702E-2</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.2">
@@ -4152,7 +4161,7 @@
         <v>12</v>
       </c>
       <c r="E215">
-        <v>4.62411825164937</v>
+        <v>4.6241182516493701E-2</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.2">
@@ -4169,7 +4178,7 @@
         <v>14</v>
       </c>
       <c r="E216">
-        <v>0.72307574716218004</v>
+        <v>7.2307574716217998E-3</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.2">
@@ -4186,7 +4195,7 @@
         <v>30</v>
       </c>
       <c r="E217">
-        <v>638500</v>
+        <v>6385</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.2">
@@ -4203,7 +4212,7 @@
         <v>15</v>
       </c>
       <c r="E218">
-        <v>158669.29104209601</v>
+        <v>1586.6929104209601</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.2">
@@ -4220,7 +4229,7 @@
         <v>8</v>
       </c>
       <c r="E219">
-        <v>113676.17305164</v>
+        <v>1136.7617305163999</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.2">
@@ -4237,7 +4246,7 @@
         <v>9</v>
       </c>
       <c r="E220">
-        <v>2078174.12583196</v>
+        <v>20781.741258319598</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.2">
@@ -4254,7 +4263,7 @@
         <v>10</v>
       </c>
       <c r="E221">
-        <v>50754.032396368202</v>
+        <v>507.540323963682</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.2">
@@ -4271,7 +4280,7 @@
         <v>11</v>
       </c>
       <c r="E222">
-        <v>43303.653713250103</v>
+        <v>433.036537132501</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.2">
@@ -4288,7 +4297,7 @@
         <v>12</v>
       </c>
       <c r="E223">
-        <v>55366.480703868598</v>
+        <v>553.66480703868604</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.2">
@@ -4305,7 +4314,7 @@
         <v>13</v>
       </c>
       <c r="E224">
-        <v>30345.743655182399</v>
+        <v>303.457436551824</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.2">
@@ -4322,7 +4331,7 @@
         <v>17</v>
       </c>
       <c r="E225">
-        <v>55152.824541592599</v>
+        <v>551.52824541592599</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.2">
@@ -4339,7 +4348,7 @@
         <v>14</v>
       </c>
       <c r="E226">
-        <v>50391.735006239403</v>
+        <v>503.91735006239401</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.2">
@@ -4356,7 +4365,7 @@
         <v>18</v>
       </c>
       <c r="E227">
-        <v>728.69775966961197</v>
+        <v>7.2869775966961203</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.2">
@@ -4373,7 +4382,7 @@
         <v>6</v>
       </c>
       <c r="E228">
-        <v>401000</v>
+        <v>4010</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.2">
@@ -4390,7 +4399,7 @@
         <v>16</v>
       </c>
       <c r="E229">
-        <v>115400</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.2">
@@ -4407,7 +4416,7 @@
         <v>33</v>
       </c>
       <c r="E230">
-        <v>40573.792419952697</v>
+        <v>405.73792419952701</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.2">
@@ -4424,7 +4433,7 @@
         <v>8</v>
       </c>
       <c r="E231">
-        <v>182000</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.2">
@@ -4441,7 +4450,7 @@
         <v>9</v>
       </c>
       <c r="E232">
-        <v>596.38778125084605</v>
+        <v>5.9638778125084597</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.2">
@@ -4458,7 +4467,7 @@
         <v>10</v>
       </c>
       <c r="E233">
-        <v>36734.390352462702</v>
+        <v>367.34390352462702</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.2">
@@ -4475,7 +4484,7 @@
         <v>29</v>
       </c>
       <c r="E234">
-        <v>0.39303095766519502</v>
+        <v>3.93030957665195E-3</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.2">
@@ -4492,7 +4501,7 @@
         <v>34</v>
       </c>
       <c r="E235">
-        <v>695.03641537595195</v>
+        <v>6.9503641537595104</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.2">
@@ -4509,7 +4518,7 @@
         <v>6</v>
       </c>
       <c r="E236">
-        <v>31.611872159190799</v>
+        <v>0.31611872159190801</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.2">
@@ -4526,7 +4535,7 @@
         <v>33</v>
       </c>
       <c r="E237">
-        <v>1770.9384111740701</v>
+        <v>17.7093841117407</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.2">
@@ -4543,7 +4552,7 @@
         <v>19</v>
       </c>
       <c r="E238">
-        <v>253100</v>
+        <v>2531</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.2">
@@ -4560,7 +4569,7 @@
         <v>9</v>
       </c>
       <c r="E239">
-        <v>627.73705544000995</v>
+        <v>6.2773705544001004</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.2">
@@ -4577,7 +4586,7 @@
         <v>9</v>
       </c>
       <c r="E240">
-        <v>0.39648683709961702</v>
+        <v>3.9648683709961703E-3</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.2">
@@ -4594,7 +4603,7 @@
         <v>11</v>
       </c>
       <c r="E241">
-        <v>1071.1509752925399</v>
+        <v>10.7115097529254</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.2">
@@ -4611,7 +4620,7 @@
         <v>24</v>
       </c>
       <c r="E242">
-        <v>2.1816336893851498E-2</v>
+        <v>2.18163368938515E-4</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.2">
@@ -4628,7 +4637,7 @@
         <v>25</v>
       </c>
       <c r="E243">
-        <v>392.41848930751001</v>
+        <v>3.9241848930751</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.2">
@@ -4645,7 +4654,7 @@
         <v>29</v>
       </c>
       <c r="E244">
-        <v>11.330060315279001</v>
+        <v>0.11330060315279</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.2">
@@ -4662,7 +4671,7 @@
         <v>29</v>
       </c>
       <c r="E245">
-        <v>2.2720156565168201</v>
+        <v>2.2720156565168199E-2</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.2">
@@ -4679,7 +4688,7 @@
         <v>34</v>
       </c>
       <c r="E246">
-        <v>32992.122817480798</v>
+        <v>329.92122817480799</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.2">
@@ -4696,7 +4705,7 @@
         <v>20</v>
       </c>
       <c r="E247">
-        <v>1011200</v>
+        <v>10112</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.2">
@@ -4713,7 +4722,7 @@
         <v>9</v>
       </c>
       <c r="E248">
-        <v>7400000</v>
+        <v>74000</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.2">
@@ -4730,7 +4739,7 @@
         <v>16</v>
       </c>
       <c r="E249">
-        <v>13561.5667274809</v>
+        <v>135.615667274809</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.2">
@@ -4747,7 +4756,7 @@
         <v>9</v>
       </c>
       <c r="E250">
-        <v>1963.00780316941</v>
+        <v>19.630078031694101</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.2">
@@ -4764,7 +4773,7 @@
         <v>9</v>
       </c>
       <c r="E251">
-        <v>16127.047192727199</v>
+        <v>161.27047192727201</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.2">
@@ -4781,7 +4790,7 @@
         <v>21</v>
       </c>
       <c r="E252">
-        <v>1141338</v>
+        <v>11413.38</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.2">
@@ -4798,7 +4807,7 @@
         <v>34</v>
       </c>
       <c r="E253">
-        <v>82929.378276622301</v>
+        <v>829.29378276622299</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.2">
@@ -4815,7 +4824,7 @@
         <v>10</v>
       </c>
       <c r="E254">
-        <v>288600</v>
+        <v>2886</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.2">
@@ -4832,7 +4841,7 @@
         <v>11</v>
       </c>
       <c r="E255">
-        <v>342300</v>
+        <v>3423</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.2">
@@ -4849,7 +4858,7 @@
         <v>22</v>
       </c>
       <c r="E256">
-        <v>163429</v>
+        <v>1634.29</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.2">
@@ -4866,7 +4875,7 @@
         <v>9</v>
       </c>
       <c r="E257">
-        <v>36.945604341186701</v>
+        <v>0.369456043411867</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.2">
@@ -4883,7 +4892,7 @@
         <v>23</v>
       </c>
       <c r="E258">
-        <v>176800</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.2">
@@ -4900,7 +4909,7 @@
         <v>34</v>
       </c>
       <c r="E259">
-        <v>24263.054395658801</v>
+        <v>242.63054395658801</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.2">
@@ -4917,7 +4926,7 @@
         <v>12</v>
       </c>
       <c r="E260">
-        <v>1112276</v>
+        <v>11122.76</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.2">
@@ -4934,7 +4943,7 @@
         <v>24</v>
       </c>
       <c r="E261">
-        <v>371359</v>
+        <v>3713.59</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.2">
@@ -4951,7 +4960,7 @@
         <v>25</v>
       </c>
       <c r="E262">
-        <v>277700</v>
+        <v>2777</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.2">
@@ -4968,7 +4977,7 @@
         <v>27</v>
       </c>
       <c r="E263">
-        <v>294315</v>
+        <v>2943.15</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.2">
@@ -4985,7 +4994,7 @@
         <v>9</v>
       </c>
       <c r="E264">
-        <v>16.1624915257906</v>
+        <v>0.16162491525790601</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.2">
@@ -5002,7 +5011,7 @@
         <v>9</v>
       </c>
       <c r="E265">
-        <v>36.098701876084597</v>
+        <v>0.36098701876084599</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.2">
@@ -5019,7 +5028,7 @@
         <v>12</v>
       </c>
       <c r="E266">
-        <v>1.7503354566523099</v>
+        <v>1.7503354566523101E-2</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.2">
@@ -5036,7 +5045,7 @@
         <v>13</v>
       </c>
       <c r="E267">
-        <v>217300</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.2">
@@ -5053,7 +5062,7 @@
         <v>34</v>
       </c>
       <c r="E268">
-        <v>445.98847114147202</v>
+        <v>4.4598847114147198</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.2">
@@ -5070,7 +5079,7 @@
         <v>9</v>
       </c>
       <c r="E269">
-        <v>524.29258652900103</v>
+        <v>5.2429258652900099</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.2">
@@ -5087,7 +5096,7 @@
         <v>9</v>
       </c>
       <c r="E270">
-        <v>7.0121680031386404</v>
+        <v>7.0121680031386399E-2</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.2">
@@ -5104,7 +5113,7 @@
         <v>10</v>
       </c>
       <c r="E271">
-        <v>1.24091344879746</v>
+        <v>1.24091344879746E-2</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.2">
@@ -5121,7 +5130,7 @@
         <v>17</v>
       </c>
       <c r="E272">
-        <v>463600</v>
+        <v>4636</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.2">
@@ -5138,7 +5147,7 @@
         <v>18</v>
       </c>
       <c r="E273">
-        <v>26.806394082856698</v>
+        <v>0.26806394082856699</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.2">
@@ -5155,7 +5164,7 @@
         <v>18</v>
       </c>
       <c r="E274">
-        <v>3.86463289113683</v>
+        <v>3.8646328911368301E-2</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.2">
@@ -5172,7 +5181,7 @@
         <v>29</v>
       </c>
       <c r="E275">
-        <v>1.6307667175654299</v>
+        <v>1.6307667175654302E-2</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.2">
@@ -5189,7 +5198,7 @@
         <v>34</v>
       </c>
       <c r="E276">
-        <v>25077.1525383275</v>
+        <v>250.77152538327499</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.2">
@@ -5206,7 +5215,7 @@
         <v>6</v>
       </c>
       <c r="E277">
-        <v>7499.2716764546403</v>
+        <v>74.992716764546401</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.2">
@@ -5223,7 +5232,7 @@
         <v>16</v>
       </c>
       <c r="E278">
-        <v>0.28826335485280902</v>
+        <v>2.88263354852809E-3</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.2">
@@ -5240,7 +5249,7 @@
         <v>20</v>
       </c>
       <c r="E279">
-        <v>1.1826071500883</v>
+        <v>1.1826071500883001E-2</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.2">
@@ -5257,7 +5266,7 @@
         <v>9</v>
       </c>
       <c r="E280">
-        <v>846.81952649846903</v>
+        <v>8.4681952649846899</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.2">
@@ -5274,7 +5283,7 @@
         <v>9</v>
       </c>
       <c r="E281">
-        <v>1488.37251852796</v>
+        <v>14.8837251852796</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.2">
@@ -5291,7 +5300,7 @@
         <v>11</v>
       </c>
       <c r="E282">
-        <v>0.67193588073199095</v>
+        <v>6.7193588073199096E-3</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.2">
@@ -5308,7 +5317,7 @@
         <v>22</v>
       </c>
       <c r="E283">
-        <v>3.5814182443015099</v>
+        <v>3.5814182443015097E-2</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.2">
@@ -5325,7 +5334,7 @@
         <v>12</v>
       </c>
       <c r="E284">
-        <v>1705.6069516740199</v>
+        <v>17.056069516740202</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.2">
@@ -5342,7 +5351,7 @@
         <v>12</v>
       </c>
       <c r="E285">
-        <v>0.21147162467398001</v>
+        <v>2.1147162467398E-3</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.2">
@@ -5359,7 +5368,7 @@
         <v>14</v>
       </c>
       <c r="E286">
-        <v>473600</v>
+        <v>4736</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.2">
@@ -5376,7 +5385,7 @@
         <v>29</v>
       </c>
       <c r="E287">
-        <v>1.4984170140323301</v>
+        <v>1.49841701403233E-2</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.2">
@@ -5393,7 +5402,7 @@
         <v>34</v>
       </c>
       <c r="E288">
-        <v>34852.4952135762</v>
+        <v>348.52495213576202</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.2">
@@ -5410,7 +5419,7 @@
         <v>6</v>
       </c>
       <c r="E289">
-        <v>354.81639326181403</v>
+        <v>3.5481639326181398</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.2">
@@ -5427,7 +5436,7 @@
         <v>9</v>
       </c>
       <c r="E290">
-        <v>988.912584211536</v>
+        <v>9.8891258421153605</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.2">
@@ -5444,7 +5453,7 @@
         <v>10</v>
       </c>
       <c r="E291">
-        <v>10.729226920198499</v>
+        <v>0.10729226920198499</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.2">
@@ -5461,7 +5470,7 @@
         <v>12</v>
       </c>
       <c r="E292">
-        <v>751.73043031172995</v>
+        <v>7.5173043031173004</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.2">
@@ -5478,7 +5487,7 @@
         <v>24</v>
       </c>
       <c r="E293">
-        <v>3.3754990022431701</v>
+        <v>3.3754990022431701E-2</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.2">
@@ -5495,7 +5504,7 @@
         <v>28</v>
       </c>
       <c r="E294">
-        <v>791800</v>
+        <v>7918</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.2">
@@ -5512,7 +5521,7 @@
         <v>34</v>
       </c>
       <c r="E295">
-        <v>7090.4358662924697</v>
+        <v>70.904358662924693</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.2">
@@ -5529,7 +5538,7 @@
         <v>18</v>
       </c>
       <c r="E296">
-        <v>255700</v>
+        <v>2557</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.2">
@@ -5546,7 +5555,7 @@
         <v>29</v>
       </c>
       <c r="E297">
-        <v>464000</v>
+        <v>4640</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.2">
@@ -5563,7 +5572,7 @@
         <v>6</v>
       </c>
       <c r="E298">
-        <v>4715.3198847615804</v>
+        <v>47.153198847615798</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.2">
@@ -5580,7 +5589,7 @@
         <v>33</v>
       </c>
       <c r="E299">
-        <v>29440.908677920401</v>
+        <v>294.40908677920498</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.2">
@@ -5597,7 +5606,7 @@
         <v>16</v>
       </c>
       <c r="E300">
-        <v>3510.7964325861399</v>
+        <v>35.107964325861403</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.2">
@@ -5614,7 +5623,7 @@
         <v>9</v>
       </c>
       <c r="E301">
-        <v>159.203816868666</v>
+        <v>1.59203816868666</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.2">
@@ -5631,7 +5640,7 @@
         <v>9</v>
       </c>
       <c r="E302">
-        <v>109296.270545269</v>
+        <v>1092.96270545269</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.2">
@@ -5648,7 +5657,7 @@
         <v>10</v>
       </c>
       <c r="E303">
-        <v>1325.1014300607801</v>
+        <v>13.2510143006078</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.2">
@@ -5665,7 +5674,7 @@
         <v>11</v>
       </c>
       <c r="E304">
-        <v>3541.0945765165002</v>
+        <v>35.410945765165003</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.2">
@@ -5682,7 +5691,7 @@
         <v>12</v>
       </c>
       <c r="E305">
-        <v>4183.6995828521904</v>
+        <v>41.8369958285219</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.2">
@@ -5699,7 +5708,7 @@
         <v>30</v>
       </c>
       <c r="E306">
-        <v>264500</v>
+        <v>2645</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.2">
@@ -5716,7 +5725,7 @@
         <v>34</v>
       </c>
       <c r="E307">
-        <v>217827.60505316299</v>
+        <v>2178.2760505316301</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.2">
@@ -5733,7 +5742,7 @@
         <v>6</v>
       </c>
       <c r="E308">
-        <v>12398.980173362699</v>
+        <v>123.989801733627</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.2">
@@ -5750,7 +5759,7 @@
         <v>33</v>
       </c>
       <c r="E309">
-        <v>137814.36049095201</v>
+        <v>1378.14360490952</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.2">
@@ -5767,7 +5776,7 @@
         <v>16</v>
       </c>
       <c r="E310">
-        <v>1027.3485765780199</v>
+        <v>10.273485765780199</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.2">
@@ -5784,7 +5793,7 @@
         <v>20</v>
       </c>
       <c r="E311">
-        <v>1257898.8173928501</v>
+        <v>12578.988173928499</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.2">
@@ -5801,7 +5810,7 @@
         <v>9</v>
       </c>
       <c r="E312">
-        <v>79385.3331369238</v>
+        <v>793.85333136923805</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.2">
@@ -5818,7 +5827,7 @@
         <v>10</v>
       </c>
       <c r="E313">
-        <v>24728.538077107401</v>
+        <v>247.28538077107399</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.2">
@@ -5835,7 +5844,7 @@
         <v>11</v>
       </c>
       <c r="E314">
-        <v>77287.082512310197</v>
+        <v>772.87082512310201</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.2">
@@ -5852,7 +5861,7 @@
         <v>22</v>
       </c>
       <c r="E315">
-        <v>16771.418581755599</v>
+        <v>167.714185817556</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.2">
@@ -5869,7 +5878,7 @@
         <v>12</v>
       </c>
       <c r="E316">
-        <v>33928.001228080699</v>
+        <v>339.280012280807</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.2">
@@ -5886,7 +5895,7 @@
         <v>24</v>
       </c>
       <c r="E317">
-        <v>140464.60268466</v>
+        <v>1404.6460268466001</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.2">
@@ -5903,7 +5912,7 @@
         <v>25</v>
       </c>
       <c r="E318">
-        <v>203807.58151069199</v>
+        <v>2038.0758151069199</v>
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.2">
@@ -5920,7 +5929,7 @@
         <v>26</v>
       </c>
       <c r="E319">
-        <v>11758</v>
+        <v>117.58</v>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.2">
@@ -5937,7 +5946,7 @@
         <v>27</v>
       </c>
       <c r="E320">
-        <v>13547</v>
+        <v>135.47</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.2">
@@ -5954,7 +5963,7 @@
         <v>18</v>
       </c>
       <c r="E321">
-        <v>45259.328973026</v>
+        <v>452.59328973025998</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.2">
@@ -5971,7 +5980,857 @@
         <v>29</v>
       </c>
       <c r="E322">
-        <v>520982.875709338</v>
+        <v>5209.8287570933799</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A323" t="s">
+        <v>32</v>
+      </c>
+      <c r="B323" t="s">
+        <v>6</v>
+      </c>
+      <c r="C323" t="s">
+        <v>35</v>
+      </c>
+      <c r="D323" t="s">
+        <v>36</v>
+      </c>
+      <c r="E323">
+        <v>42.6</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A324" t="s">
+        <v>32</v>
+      </c>
+      <c r="B324" t="s">
+        <v>6</v>
+      </c>
+      <c r="C324" t="s">
+        <v>35</v>
+      </c>
+      <c r="D324" t="s">
+        <v>37</v>
+      </c>
+      <c r="E324">
+        <v>4217.3999999999996</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A325" t="s">
+        <v>32</v>
+      </c>
+      <c r="B325" t="s">
+        <v>33</v>
+      </c>
+      <c r="C325" t="s">
+        <v>35</v>
+      </c>
+      <c r="D325" t="s">
+        <v>36</v>
+      </c>
+      <c r="E325">
+        <v>20.96</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A326" t="s">
+        <v>32</v>
+      </c>
+      <c r="B326" t="s">
+        <v>33</v>
+      </c>
+      <c r="C326" t="s">
+        <v>35</v>
+      </c>
+      <c r="D326" t="s">
+        <v>37</v>
+      </c>
+      <c r="E326">
+        <v>2075.04</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A327" t="s">
+        <v>32</v>
+      </c>
+      <c r="B327" t="s">
+        <v>16</v>
+      </c>
+      <c r="C327" t="s">
+        <v>35</v>
+      </c>
+      <c r="D327" t="s">
+        <v>36</v>
+      </c>
+      <c r="E327">
+        <v>13.35</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A328" t="s">
+        <v>32</v>
+      </c>
+      <c r="B328" t="s">
+        <v>16</v>
+      </c>
+      <c r="C328" t="s">
+        <v>35</v>
+      </c>
+      <c r="D328" t="s">
+        <v>37</v>
+      </c>
+      <c r="E328">
+        <v>1321.65</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A329" t="s">
+        <v>32</v>
+      </c>
+      <c r="B329" t="s">
+        <v>8</v>
+      </c>
+      <c r="C329" t="s">
+        <v>35</v>
+      </c>
+      <c r="D329" t="s">
+        <v>36</v>
+      </c>
+      <c r="E329">
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A330" t="s">
+        <v>32</v>
+      </c>
+      <c r="B330" t="s">
+        <v>8</v>
+      </c>
+      <c r="C330" t="s">
+        <v>35</v>
+      </c>
+      <c r="D330" t="s">
+        <v>37</v>
+      </c>
+      <c r="E330">
+        <v>1801.8</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A331" t="s">
+        <v>32</v>
+      </c>
+      <c r="B331" t="s">
+        <v>19</v>
+      </c>
+      <c r="C331" t="s">
+        <v>35</v>
+      </c>
+      <c r="D331" t="s">
+        <v>36</v>
+      </c>
+      <c r="E331">
+        <v>25.31</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A332" t="s">
+        <v>32</v>
+      </c>
+      <c r="B332" t="s">
+        <v>19</v>
+      </c>
+      <c r="C332" t="s">
+        <v>35</v>
+      </c>
+      <c r="D332" t="s">
+        <v>37</v>
+      </c>
+      <c r="E332">
+        <v>2505.69</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A333" t="s">
+        <v>32</v>
+      </c>
+      <c r="B333" t="s">
+        <v>20</v>
+      </c>
+      <c r="C333" t="s">
+        <v>35</v>
+      </c>
+      <c r="D333" t="s">
+        <v>36</v>
+      </c>
+      <c r="E333">
+        <v>226.91</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A334" t="s">
+        <v>32</v>
+      </c>
+      <c r="B334" t="s">
+        <v>20</v>
+      </c>
+      <c r="C334" t="s">
+        <v>35</v>
+      </c>
+      <c r="D334" t="s">
+        <v>37</v>
+      </c>
+      <c r="E334">
+        <v>22464.09</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A335" t="s">
+        <v>32</v>
+      </c>
+      <c r="B335" t="s">
+        <v>9</v>
+      </c>
+      <c r="C335" t="s">
+        <v>35</v>
+      </c>
+      <c r="D335" t="s">
+        <v>36</v>
+      </c>
+      <c r="E335">
+        <v>761.21</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A336" t="s">
+        <v>32</v>
+      </c>
+      <c r="B336" t="s">
+        <v>9</v>
+      </c>
+      <c r="C336" t="s">
+        <v>35</v>
+      </c>
+      <c r="D336" t="s">
+        <v>37</v>
+      </c>
+      <c r="E336">
+        <v>75359.789999999994</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A337" t="s">
+        <v>32</v>
+      </c>
+      <c r="B337" t="s">
+        <v>21</v>
+      </c>
+      <c r="C337" t="s">
+        <v>35</v>
+      </c>
+      <c r="D337" t="s">
+        <v>36</v>
+      </c>
+      <c r="E337">
+        <v>114.13379999999999</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A338" t="s">
+        <v>32</v>
+      </c>
+      <c r="B338" t="s">
+        <v>21</v>
+      </c>
+      <c r="C338" t="s">
+        <v>35</v>
+      </c>
+      <c r="D338" t="s">
+        <v>37</v>
+      </c>
+      <c r="E338">
+        <v>11299.2462</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A339" t="s">
+        <v>32</v>
+      </c>
+      <c r="B339" t="s">
+        <v>10</v>
+      </c>
+      <c r="C339" t="s">
+        <v>35</v>
+      </c>
+      <c r="D339" t="s">
+        <v>36</v>
+      </c>
+      <c r="E339">
+        <v>35.14</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A340" t="s">
+        <v>32</v>
+      </c>
+      <c r="B340" t="s">
+        <v>10</v>
+      </c>
+      <c r="C340" t="s">
+        <v>35</v>
+      </c>
+      <c r="D340" t="s">
+        <v>37</v>
+      </c>
+      <c r="E340">
+        <v>3478.86</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A341" t="s">
+        <v>32</v>
+      </c>
+      <c r="B341" t="s">
+        <v>11</v>
+      </c>
+      <c r="C341" t="s">
+        <v>35</v>
+      </c>
+      <c r="D341" t="s">
+        <v>36</v>
+      </c>
+      <c r="E341">
+        <v>42.42</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A342" t="s">
+        <v>32</v>
+      </c>
+      <c r="B342" t="s">
+        <v>11</v>
+      </c>
+      <c r="C342" t="s">
+        <v>35</v>
+      </c>
+      <c r="D342" t="s">
+        <v>37</v>
+      </c>
+      <c r="E342">
+        <v>4199.58</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A343" t="s">
+        <v>32</v>
+      </c>
+      <c r="B343" t="s">
+        <v>22</v>
+      </c>
+      <c r="C343" t="s">
+        <v>35</v>
+      </c>
+      <c r="D343" t="s">
+        <v>36</v>
+      </c>
+      <c r="E343">
+        <v>18.020399999999999</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A344" t="s">
+        <v>32</v>
+      </c>
+      <c r="B344" t="s">
+        <v>22</v>
+      </c>
+      <c r="C344" t="s">
+        <v>35</v>
+      </c>
+      <c r="D344" t="s">
+        <v>37</v>
+      </c>
+      <c r="E344">
+        <v>1784.0195999999901</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A345" t="s">
+        <v>32</v>
+      </c>
+      <c r="B345" t="s">
+        <v>23</v>
+      </c>
+      <c r="C345" t="s">
+        <v>35</v>
+      </c>
+      <c r="D345" t="s">
+        <v>36</v>
+      </c>
+      <c r="E345">
+        <v>17.68</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A346" t="s">
+        <v>32</v>
+      </c>
+      <c r="B346" t="s">
+        <v>23</v>
+      </c>
+      <c r="C346" t="s">
+        <v>35</v>
+      </c>
+      <c r="D346" t="s">
+        <v>37</v>
+      </c>
+      <c r="E346">
+        <v>1750.32</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A347" t="s">
+        <v>32</v>
+      </c>
+      <c r="B347" t="s">
+        <v>12</v>
+      </c>
+      <c r="C347" t="s">
+        <v>35</v>
+      </c>
+      <c r="D347" t="s">
+        <v>36</v>
+      </c>
+      <c r="E347">
+        <v>115.2847</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A348" t="s">
+        <v>32</v>
+      </c>
+      <c r="B348" t="s">
+        <v>12</v>
+      </c>
+      <c r="C348" t="s">
+        <v>35</v>
+      </c>
+      <c r="D348" t="s">
+        <v>37</v>
+      </c>
+      <c r="E348">
+        <v>11413.185299999999</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A349" t="s">
+        <v>32</v>
+      </c>
+      <c r="B349" t="s">
+        <v>24</v>
+      </c>
+      <c r="C349" t="s">
+        <v>35</v>
+      </c>
+      <c r="D349" t="s">
+        <v>36</v>
+      </c>
+      <c r="E349">
+        <v>51.182699999999997</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A350" t="s">
+        <v>32</v>
+      </c>
+      <c r="B350" t="s">
+        <v>24</v>
+      </c>
+      <c r="C350" t="s">
+        <v>35</v>
+      </c>
+      <c r="D350" t="s">
+        <v>37</v>
+      </c>
+      <c r="E350">
+        <v>5067.0873000000001</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A351" t="s">
+        <v>32</v>
+      </c>
+      <c r="B351" t="s">
+        <v>25</v>
+      </c>
+      <c r="C351" t="s">
+        <v>35</v>
+      </c>
+      <c r="D351" t="s">
+        <v>36</v>
+      </c>
+      <c r="E351">
+        <v>48.19</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A352" t="s">
+        <v>32</v>
+      </c>
+      <c r="B352" t="s">
+        <v>25</v>
+      </c>
+      <c r="C352" t="s">
+        <v>35</v>
+      </c>
+      <c r="D352" t="s">
+        <v>37</v>
+      </c>
+      <c r="E352">
+        <v>4770.8100000000004</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A353" t="s">
+        <v>32</v>
+      </c>
+      <c r="B353" t="s">
+        <v>26</v>
+      </c>
+      <c r="C353" t="s">
+        <v>35</v>
+      </c>
+      <c r="D353" t="s">
+        <v>36</v>
+      </c>
+      <c r="E353">
+        <v>1.1758</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A354" t="s">
+        <v>32</v>
+      </c>
+      <c r="B354" t="s">
+        <v>26</v>
+      </c>
+      <c r="C354" t="s">
+        <v>35</v>
+      </c>
+      <c r="D354" t="s">
+        <v>37</v>
+      </c>
+      <c r="E354">
+        <v>116.4042</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A355" t="s">
+        <v>32</v>
+      </c>
+      <c r="B355" t="s">
+        <v>27</v>
+      </c>
+      <c r="C355" t="s">
+        <v>35</v>
+      </c>
+      <c r="D355" t="s">
+        <v>36</v>
+      </c>
+      <c r="E355">
+        <v>30.786200000000001</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A356" t="s">
+        <v>32</v>
+      </c>
+      <c r="B356" t="s">
+        <v>27</v>
+      </c>
+      <c r="C356" t="s">
+        <v>35</v>
+      </c>
+      <c r="D356" t="s">
+        <v>37</v>
+      </c>
+      <c r="E356">
+        <v>3047.8337999999999</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A357" t="s">
+        <v>32</v>
+      </c>
+      <c r="B357" t="s">
+        <v>13</v>
+      </c>
+      <c r="C357" t="s">
+        <v>35</v>
+      </c>
+      <c r="D357" t="s">
+        <v>36</v>
+      </c>
+      <c r="E357">
+        <v>21.73</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A358" t="s">
+        <v>32</v>
+      </c>
+      <c r="B358" t="s">
+        <v>13</v>
+      </c>
+      <c r="C358" t="s">
+        <v>35</v>
+      </c>
+      <c r="D358" t="s">
+        <v>37</v>
+      </c>
+      <c r="E358">
+        <v>2151.27</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A359" t="s">
+        <v>32</v>
+      </c>
+      <c r="B359" t="s">
+        <v>17</v>
+      </c>
+      <c r="C359" t="s">
+        <v>35</v>
+      </c>
+      <c r="D359" t="s">
+        <v>36</v>
+      </c>
+      <c r="E359">
+        <v>46.36</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A360" t="s">
+        <v>32</v>
+      </c>
+      <c r="B360" t="s">
+        <v>17</v>
+      </c>
+      <c r="C360" t="s">
+        <v>35</v>
+      </c>
+      <c r="D360" t="s">
+        <v>37</v>
+      </c>
+      <c r="E360">
+        <v>4589.6400000000003</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A361" t="s">
+        <v>32</v>
+      </c>
+      <c r="B361" t="s">
+        <v>14</v>
+      </c>
+      <c r="C361" t="s">
+        <v>35</v>
+      </c>
+      <c r="D361" t="s">
+        <v>36</v>
+      </c>
+      <c r="E361">
+        <v>47.36</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A362" t="s">
+        <v>32</v>
+      </c>
+      <c r="B362" t="s">
+        <v>14</v>
+      </c>
+      <c r="C362" t="s">
+        <v>35</v>
+      </c>
+      <c r="D362" t="s">
+        <v>37</v>
+      </c>
+      <c r="E362">
+        <v>4688.6400000000003</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A363" t="s">
+        <v>32</v>
+      </c>
+      <c r="B363" t="s">
+        <v>28</v>
+      </c>
+      <c r="C363" t="s">
+        <v>35</v>
+      </c>
+      <c r="D363" t="s">
+        <v>36</v>
+      </c>
+      <c r="E363">
+        <v>79.180000000000007</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A364" t="s">
+        <v>32</v>
+      </c>
+      <c r="B364" t="s">
+        <v>28</v>
+      </c>
+      <c r="C364" t="s">
+        <v>35</v>
+      </c>
+      <c r="D364" t="s">
+        <v>37</v>
+      </c>
+      <c r="E364">
+        <v>7838.82</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A365" t="s">
+        <v>32</v>
+      </c>
+      <c r="B365" t="s">
+        <v>18</v>
+      </c>
+      <c r="C365" t="s">
+        <v>35</v>
+      </c>
+      <c r="D365" t="s">
+        <v>36</v>
+      </c>
+      <c r="E365">
+        <v>30.099</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A366" t="s">
+        <v>32</v>
+      </c>
+      <c r="B366" t="s">
+        <v>18</v>
+      </c>
+      <c r="C366" t="s">
+        <v>35</v>
+      </c>
+      <c r="D366" t="s">
+        <v>37</v>
+      </c>
+      <c r="E366">
+        <v>2979.8009999999999</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A367" t="s">
+        <v>32</v>
+      </c>
+      <c r="B367" t="s">
+        <v>29</v>
+      </c>
+      <c r="C367" t="s">
+        <v>35</v>
+      </c>
+      <c r="D367" t="s">
+        <v>36</v>
+      </c>
+      <c r="E367">
+        <v>98.5</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A368" t="s">
+        <v>32</v>
+      </c>
+      <c r="B368" t="s">
+        <v>29</v>
+      </c>
+      <c r="C368" t="s">
+        <v>35</v>
+      </c>
+      <c r="D368" t="s">
+        <v>37</v>
+      </c>
+      <c r="E368">
+        <v>9751.5</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A369" t="s">
+        <v>32</v>
+      </c>
+      <c r="B369" t="s">
+        <v>30</v>
+      </c>
+      <c r="C369" t="s">
+        <v>35</v>
+      </c>
+      <c r="D369" t="s">
+        <v>36</v>
+      </c>
+      <c r="E369">
+        <v>26.45</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A370" t="s">
+        <v>32</v>
+      </c>
+      <c r="B370" t="s">
+        <v>30</v>
+      </c>
+      <c r="C370" t="s">
+        <v>35</v>
+      </c>
+      <c r="D370" t="s">
+        <v>37</v>
+      </c>
+      <c r="E370">
+        <v>2618.5500000000002</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A371" t="s">
+        <v>32</v>
+      </c>
+      <c r="B371" t="s">
+        <v>34</v>
+      </c>
+      <c r="C371" t="s">
+        <v>35</v>
+      </c>
+      <c r="D371" t="s">
+        <v>36</v>
+      </c>
+      <c r="E371">
+        <v>42.6173269047639</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A372" t="s">
+        <v>32</v>
+      </c>
+      <c r="B372" t="s">
+        <v>34</v>
+      </c>
+      <c r="C372" t="s">
+        <v>35</v>
+      </c>
+      <c r="D372" t="s">
+        <v>37</v>
+      </c>
+      <c r="E372">
+        <v>4219.11536357163</v>
       </c>
     </row>
   </sheetData>
